--- a/applications/south_africa/KZN_projections.xlsx
+++ b/applications/south_africa/KZN_projections.xlsx
@@ -584,76 +584,76 @@
     </row>
     <row r="4" spans="1:24">
       <c r="A4">
-        <v>1232</v>
+        <v>139309</v>
       </c>
       <c r="B4">
-        <v>5184</v>
+        <v>20</v>
       </c>
       <c r="C4">
-        <v>1540</v>
+        <v>1901739</v>
       </c>
       <c r="D4">
-        <v>0.00717435559006211</v>
+        <v>0.8111947322829745</v>
       </c>
       <c r="E4">
-        <v>0.03019207977484475</v>
+        <v>0.0001186789541366459</v>
       </c>
       <c r="F4">
-        <v>0.00896794448757764</v>
+        <v>11.07379345900833</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.02488102833981286</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.06905933104679875</v>
       </c>
       <c r="J4">
-        <v>0.8679218327003302</v>
+        <v>0.02712846738444087</v>
       </c>
       <c r="K4">
-        <v>0.8345344537491042</v>
+        <v>0.009241164230390862</v>
       </c>
       <c r="L4">
-        <v>0.8732512617440658</v>
+        <v>0.217241307249138</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>1716946</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>3568377</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>10.45218802725299</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>21.72307515551876</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.0677365068329373</v>
       </c>
       <c r="T4">
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>0.082947100632872</v>
       </c>
       <c r="V4">
-        <v>0.8679218327003302</v>
+        <v>0.2173279253491109</v>
       </c>
       <c r="W4">
-        <v>0.8345344537491042</v>
+        <v>0.009241164230390862</v>
       </c>
       <c r="X4">
-        <v>0.8732512617440658</v>
+        <v>0.5833013776219316</v>
       </c>
     </row>
   </sheetData>
